--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>166027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>中欧创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>72.39</t>
+          <t>24.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009791</t>
+          <t>001856</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合C</t>
+          <t>易方达环保主题灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.78</t>
+          <t>26.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>95.86</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166027</t>
+          <t>009791</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧创业板两年定期开放混合A</t>
+          <t>中欧创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>87.78</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.52</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001856</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达环保主题灵活配置混合</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>72.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>南方君信灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>72.39</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2.56</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -665,7 +733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +754,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005741</t>
+          <t>010363</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合A</t>
+          <t>信达澳银匠心臻选两年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>20.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3908</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010150</t>
+          <t>160143</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方君信灵活配置混合C</t>
+          <t>南方创业板2年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.82</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -762,26 +860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005793</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华富可转债债券</t>
+          <t>信达澳银周期动力混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -790,26 +898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010363</t>
+          <t>005741</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银匠心臻选两年持有期混合</t>
+          <t>南方君信灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -818,25 +936,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010963</t>
+          <t>003751</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>信达澳银周期动力混合</t>
+          <t>万家瑞隆混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +974,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160143</t>
+          <t>005793</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方创业板2年定期开放混合</t>
+          <t>华富可转债债券</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -874,26 +1012,30 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003751</t>
+          <t>010150</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家瑞隆混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
+          <t>南方君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>56.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,6 @@
           <t>南方君信灵活配置混合C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>56.82</t>
@@ -1036,6 +1036,176 @@
       </c>
       <c r="H8" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1211,4 +1212,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1382,4 +1383,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,7 +1392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,17 +1403,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1422,14 +1443,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.4</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1438,14 +1481,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.72</v>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1454,14 +1519,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.03</v>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1470,13 +1557,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1600,7 +1601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,17 +1612,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1631,14 +1652,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1647,14 +1690,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.4</v>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1663,14 +1728,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.72</v>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4677</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1679,14 +1766,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.03</v>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2740</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1695,13 +1804,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,7 +1962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,17 +1973,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1992,14 +2013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.5</v>
       </c>
     </row>
     <row r="3">
@@ -2008,14 +2051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.52</v>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2024,14 +2089,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.4</v>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2040,14 +2127,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.72</v>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2056,14 +2165,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.03</v>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2072,13 +2203,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300196-长海股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>2.81</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.52</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.72</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.16</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166020</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001891</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧成长优选回报灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1471,7 +1734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1672,176 +1935,6 @@
       </c>
       <c r="H5" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>166027</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>25.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0339</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009791</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2554</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001755</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实新思路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.89</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>20.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1125</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1916,26 +2009,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.62</t>
+          <t>25.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>97.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3789</t>
+          <t>1.0339</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1954,26 +2047,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>98.94</t>
+          <t>97.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3414</t>
+          <t>0.2554</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1982,32 +2075,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>001755</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>嘉实新思路灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.39</t>
+          <t>20.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.1125</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2020,6 +2113,176 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166027</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3789</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009791</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3414</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2334,7 +2597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
